--- a/population-time-progression/src/main/resources/age_specific_fertility_rates/USSR/USSR-ASFR.xlsx
+++ b/population-time-progression/src/main/resources/age_specific_fertility_rates/USSR/USSR-ASFR.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\WINAPPS\SLOVO\UKR\github\RTSS\population-time-progression\src\main\resources\age_specific_birth_rates\USSR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\RTSS\population-time-progression\src\main\resources\age_specific_fertility_rates\USSR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F436B607-710E-45D3-A0F6-15AD0D3D0D45}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83C99927-F776-47F7-9A10-5A8543C74F44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15675" yWindow="3795" windowWidth="20565" windowHeight="17655" xr2:uid="{DFBE193A-5733-46C8-91AC-A25957F41089}"/>
+    <workbookView xWindow="65655" yWindow="3870" windowWidth="30045" windowHeight="19500" activeTab="1" xr2:uid="{DFBE193A-5733-46C8-91AC-A25957F41089}"/>
   </bookViews>
   <sheets>
     <sheet name="Comment" sheetId="2" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>год</t>
   </si>
@@ -68,6 +68,18 @@
   </si>
   <si>
     <t>Е.М. Андреев, Л.Е. Дарский, Т.Л. Харькова, "Население Советского Союза : 1922-1991", РАН, научный совет "Проблемы демографии и трудовых ресурсов", М. : Наука, 1993, стр. 136</t>
+  </si>
+  <si>
+    <t>Для 1941-1945 стр. 76.</t>
+  </si>
+  <si>
+    <t>По пояснению С.В. Захарова,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Это оценки Р.И. Сифман, сделанные в 1960-х – начале 1970-х гг., на основе исходных данных выборочного опроса 1960 г. </t>
+  </si>
+  <si>
+    <t>Данные стр. 76 относятся ко всему СССР, т.е. включают южные республики с высокой рождаемостью и не бывшие под оккупацией в годы войны.</t>
   </si>
 </sst>
 </file>
@@ -120,7 +132,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -131,6 +143,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -447,22 +462,42 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF051EC9-C6EB-4470-8FD2-D48CF3BEC547}">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -473,27 +508,27 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40AFB522-F00A-4372-87E5-328006E655EB}">
-  <dimension ref="A1:I37"/>
+  <dimension ref="A1:I42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T20" sqref="T20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B1" s="3" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
@@ -522,7 +557,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="2">
         <v>1920</v>
       </c>
@@ -551,7 +586,7 @@
         <v>12.8</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="2">
         <v>1921</v>
       </c>
@@ -580,7 +615,7 @@
         <v>14.1</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="2">
         <v>1922</v>
       </c>
@@ -609,7 +644,7 @@
         <v>14.1</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="2">
         <v>1923</v>
       </c>
@@ -638,7 +673,7 @@
         <v>14.4</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="2">
         <v>1924</v>
       </c>
@@ -667,7 +702,7 @@
         <v>13.5</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="2">
         <v>1925</v>
       </c>
@@ -696,7 +731,7 @@
         <v>13.3</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="2">
         <v>1926</v>
       </c>
@@ -725,7 +760,7 @@
         <v>12.6</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="2">
         <v>1927</v>
       </c>
@@ -754,7 +789,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="2">
         <v>1928</v>
       </c>
@@ -783,7 +818,7 @@
         <v>12.1</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="2">
         <v>1929</v>
       </c>
@@ -812,7 +847,7 @@
         <v>13.3</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="2">
         <v>1930</v>
       </c>
@@ -841,7 +876,7 @@
         <v>11.2</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="2">
         <v>1931</v>
       </c>
@@ -870,7 +905,7 @@
         <v>14.1</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="2">
         <v>1932</v>
       </c>
@@ -899,7 +934,7 @@
         <v>11.2</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="2">
         <v>1933</v>
       </c>
@@ -928,7 +963,7 @@
         <v>13.1</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="2">
         <v>1934</v>
       </c>
@@ -957,7 +992,7 @@
         <v>12.7</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="2">
         <v>1935</v>
       </c>
@@ -986,7 +1021,7 @@
         <v>7.9</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="2">
         <v>1936</v>
       </c>
@@ -1015,7 +1050,7 @@
         <v>14.3</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="2">
         <v>1937</v>
       </c>
@@ -1044,7 +1079,7 @@
         <v>13.3</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="2">
         <v>1938</v>
       </c>
@@ -1073,7 +1108,7 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="2">
         <v>1939</v>
       </c>
@@ -1102,7 +1137,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="2">
         <v>1940</v>
       </c>
@@ -1131,409 +1166,554 @@
         <v>13.6</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="2">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="3">
+        <v>1941</v>
+      </c>
+      <c r="B24" s="1">
+        <v>33</v>
+      </c>
+      <c r="C24" s="1">
+        <v>177.5</v>
+      </c>
+      <c r="D24" s="1">
+        <v>209</v>
+      </c>
+      <c r="E24" s="1">
+        <v>190.9</v>
+      </c>
+      <c r="F24" s="1">
+        <v>136.1</v>
+      </c>
+      <c r="G24" s="1">
+        <v>76.900000000000006</v>
+      </c>
+      <c r="H24" s="1">
+        <v>36.799999999999997</v>
+      </c>
+      <c r="I24" s="1">
+        <v>15.4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="3">
+        <v>1942</v>
+      </c>
+      <c r="B25" s="1">
+        <v>23.6</v>
+      </c>
+      <c r="C25" s="1">
+        <v>129.1</v>
+      </c>
+      <c r="D25" s="1">
+        <v>139.4</v>
+      </c>
+      <c r="E25" s="1">
+        <v>114.8</v>
+      </c>
+      <c r="F25" s="1">
+        <v>103.9</v>
+      </c>
+      <c r="G25" s="1">
+        <v>69.900000000000006</v>
+      </c>
+      <c r="H25" s="1">
+        <v>31.2</v>
+      </c>
+      <c r="I25" s="1">
+        <v>9.8000000000000007</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="3">
+        <v>1943</v>
+      </c>
+      <c r="B26" s="1">
+        <v>14.4</v>
+      </c>
+      <c r="C26" s="1">
+        <v>84.1</v>
+      </c>
+      <c r="D26" s="1">
+        <v>85.3</v>
+      </c>
+      <c r="E26" s="1">
+        <v>80.8</v>
+      </c>
+      <c r="F26" s="1">
+        <v>66.2</v>
+      </c>
+      <c r="G26" s="1">
+        <v>41</v>
+      </c>
+      <c r="H26" s="1">
+        <v>18</v>
+      </c>
+      <c r="I26" s="1">
+        <v>10.3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" s="3">
+        <v>1944</v>
+      </c>
+      <c r="B27" s="1">
+        <v>12.2</v>
+      </c>
+      <c r="C27" s="1">
+        <v>81.900000000000006</v>
+      </c>
+      <c r="D27" s="1">
+        <v>87.4</v>
+      </c>
+      <c r="E27" s="1">
+        <v>84.1</v>
+      </c>
+      <c r="F27" s="1">
+        <v>62.2</v>
+      </c>
+      <c r="G27" s="1">
+        <v>42.3</v>
+      </c>
+      <c r="H27" s="1">
+        <v>13.9</v>
+      </c>
+      <c r="I27" s="1">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" s="3">
+        <v>1945</v>
+      </c>
+      <c r="B28" s="1">
+        <v>12.7</v>
+      </c>
+      <c r="C28" s="1">
+        <v>79.5</v>
+      </c>
+      <c r="D28" s="1">
+        <v>102.4</v>
+      </c>
+      <c r="E28" s="1">
+        <v>74.599999999999994</v>
+      </c>
+      <c r="F28" s="1">
+        <v>64.8</v>
+      </c>
+      <c r="G28" s="1">
+        <v>40.5</v>
+      </c>
+      <c r="H28" s="1">
+        <v>14.3</v>
+      </c>
+      <c r="I28" s="1">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" s="2">
         <v>1946</v>
       </c>
-      <c r="B24" s="1">
+      <c r="B29" s="1">
         <v>17.600000000000001</v>
       </c>
-      <c r="C24" s="1">
+      <c r="C29" s="1">
         <v>142.9</v>
       </c>
-      <c r="D24" s="1">
+      <c r="D29" s="1">
         <v>150.4</v>
       </c>
-      <c r="E24" s="1">
+      <c r="E29" s="1">
         <v>137.6</v>
       </c>
-      <c r="F24" s="1">
+      <c r="F29" s="1">
         <v>108.1</v>
       </c>
-      <c r="G24" s="1">
+      <c r="G29" s="1">
         <v>49.9</v>
       </c>
-      <c r="H24" s="1">
+      <c r="H29" s="1">
         <v>18.100000000000001</v>
       </c>
-      <c r="I24" s="1">
+      <c r="I29" s="1">
         <v>7.7</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="2">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" s="2">
         <v>1947</v>
       </c>
-      <c r="B25" s="1">
+      <c r="B30" s="1">
         <v>20.3</v>
       </c>
-      <c r="C25" s="1">
+      <c r="C30" s="1">
         <v>145.6</v>
       </c>
-      <c r="D25" s="1">
+      <c r="D30" s="1">
         <v>187.4</v>
       </c>
-      <c r="E25" s="1">
+      <c r="E30" s="1">
         <v>127.8</v>
       </c>
-      <c r="F25" s="1">
+      <c r="F30" s="1">
         <v>96.7</v>
       </c>
-      <c r="G25" s="1">
+      <c r="G30" s="1">
         <v>50.7</v>
       </c>
-      <c r="H25" s="1">
+      <c r="H30" s="1">
         <v>19.7</v>
       </c>
-      <c r="I25" s="1">
+      <c r="I30" s="1">
         <v>5.8</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="2">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" s="2">
         <v>1948</v>
       </c>
-      <c r="B26" s="1">
+      <c r="B31" s="1">
         <v>31.1</v>
       </c>
-      <c r="C26" s="1">
+      <c r="C31" s="1">
         <v>148.80000000000001</v>
       </c>
-      <c r="D26" s="1">
+      <c r="D31" s="1">
         <v>159.30000000000001</v>
       </c>
-      <c r="E26" s="1">
+      <c r="E31" s="1">
         <v>97.6</v>
       </c>
-      <c r="F26" s="1">
+      <c r="F31" s="1">
         <v>72.099999999999994</v>
       </c>
-      <c r="G26" s="1">
+      <c r="G31" s="1">
         <v>36.299999999999997</v>
       </c>
-      <c r="H26" s="1">
+      <c r="H31" s="1">
         <v>15.7</v>
       </c>
-      <c r="I26" s="1">
+      <c r="I31" s="1">
         <v>4.2</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="2">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" s="2">
         <v>1949</v>
       </c>
-      <c r="B27" s="1">
+      <c r="B32" s="1">
         <v>31.9</v>
       </c>
-      <c r="C27" s="1">
+      <c r="C32" s="1">
         <v>164.2</v>
       </c>
-      <c r="D27" s="1">
+      <c r="D32" s="1">
         <v>186.2</v>
       </c>
-      <c r="E27" s="1">
+      <c r="E32" s="1">
         <v>125.9</v>
       </c>
-      <c r="F27" s="1">
+      <c r="F32" s="1">
         <v>91.7</v>
       </c>
-      <c r="G27" s="1">
+      <c r="G32" s="1">
         <v>49.2</v>
       </c>
-      <c r="H27" s="1">
+      <c r="H32" s="1">
         <v>12.7</v>
       </c>
-      <c r="I27" s="1">
+      <c r="I32" s="1">
         <v>2.9</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="2">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" s="2">
         <v>1950</v>
       </c>
-      <c r="B28" s="1">
+      <c r="B33" s="1">
         <v>35.299999999999997</v>
       </c>
-      <c r="C28" s="1">
+      <c r="C33" s="1">
         <v>153.69999999999999</v>
       </c>
-      <c r="D28" s="1">
+      <c r="D33" s="1">
         <v>177.6</v>
       </c>
-      <c r="E28" s="1">
+      <c r="E33" s="1">
         <v>119.2</v>
       </c>
-      <c r="F28" s="1">
+      <c r="F33" s="1">
         <v>75.8</v>
       </c>
-      <c r="G28" s="1">
+      <c r="G33" s="1">
         <v>39.299999999999997</v>
       </c>
-      <c r="H28" s="1">
+      <c r="H33" s="1">
         <v>12.9</v>
       </c>
-      <c r="I28" s="1">
+      <c r="I33" s="1">
         <v>2.9</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="2">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34" s="2">
         <v>1951</v>
       </c>
-      <c r="B29" s="1">
+      <c r="B34" s="1">
         <v>31.4</v>
       </c>
-      <c r="C29" s="1">
+      <c r="C34" s="1">
         <v>164.8</v>
       </c>
-      <c r="D29" s="1">
+      <c r="D34" s="1">
         <v>172.4</v>
       </c>
-      <c r="E29" s="1">
+      <c r="E34" s="1">
         <v>128.80000000000001</v>
       </c>
-      <c r="F29" s="1">
+      <c r="F34" s="1">
         <v>73.3</v>
       </c>
-      <c r="G29" s="1">
+      <c r="G34" s="1">
         <v>37.4</v>
       </c>
-      <c r="H29" s="1">
+      <c r="H34" s="1">
         <v>9.6</v>
       </c>
-      <c r="I29" s="1">
+      <c r="I34" s="1">
         <v>2.7</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="2">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35" s="2">
         <v>1952</v>
       </c>
-      <c r="B30" s="1">
+      <c r="B35" s="1">
         <v>23.8</v>
       </c>
-      <c r="C30" s="1">
+      <c r="C35" s="1">
         <v>169</v>
       </c>
-      <c r="D30" s="1">
+      <c r="D35" s="1">
         <v>169</v>
       </c>
-      <c r="E30" s="1">
+      <c r="E35" s="1">
         <v>118.5</v>
       </c>
-      <c r="F30" s="1">
+      <c r="F35" s="1">
         <v>72.400000000000006</v>
       </c>
-      <c r="G30" s="1">
+      <c r="G35" s="1">
         <v>37.6</v>
       </c>
-      <c r="H30" s="1">
+      <c r="H35" s="1">
         <v>12.4</v>
       </c>
-      <c r="I30" s="1">
+      <c r="I35" s="1">
         <v>3.1</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="2">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36" s="2">
         <v>1953</v>
       </c>
-      <c r="B31" s="1">
+      <c r="B36" s="1">
         <v>20.7</v>
       </c>
-      <c r="C31" s="1">
+      <c r="C36" s="1">
         <v>154.69999999999999</v>
       </c>
-      <c r="D31" s="1">
+      <c r="D36" s="1">
         <v>162.69999999999999</v>
       </c>
-      <c r="E31" s="1">
+      <c r="E36" s="1">
         <v>117.1</v>
       </c>
-      <c r="F31" s="1">
+      <c r="F36" s="1">
         <v>70.099999999999994</v>
       </c>
-      <c r="G31" s="1">
+      <c r="G36" s="1">
         <v>34.6</v>
       </c>
-      <c r="H31" s="1">
+      <c r="H36" s="1">
         <v>7.3</v>
       </c>
-      <c r="I31" s="1">
+      <c r="I36" s="1">
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="2">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37" s="2">
         <v>1954</v>
       </c>
-      <c r="B32" s="1">
+      <c r="B37" s="1">
         <v>21.2</v>
       </c>
-      <c r="C32" s="1">
+      <c r="C37" s="1">
         <v>162.80000000000001</v>
       </c>
-      <c r="D32" s="1">
+      <c r="D37" s="1">
         <v>171.2</v>
       </c>
-      <c r="E32" s="1">
+      <c r="E37" s="1">
         <v>133.69999999999999</v>
       </c>
-      <c r="F32" s="1">
+      <c r="F37" s="1">
         <v>75</v>
       </c>
-      <c r="G32" s="1">
+      <c r="G37" s="1">
         <v>32.799999999999997</v>
       </c>
-      <c r="H32" s="1">
+      <c r="H37" s="1">
         <v>9.4</v>
       </c>
-      <c r="I32" s="1">
+      <c r="I37" s="1">
         <v>1.7</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="2">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A38" s="2">
         <v>1955</v>
       </c>
-      <c r="B33" s="1">
+      <c r="B38" s="1">
         <v>19.100000000000001</v>
       </c>
-      <c r="C33" s="1">
+      <c r="C38" s="1">
         <v>164.2</v>
       </c>
-      <c r="D33" s="1">
+      <c r="D38" s="1">
         <v>176.5</v>
       </c>
-      <c r="E33" s="1">
+      <c r="E38" s="1">
         <v>118.2</v>
       </c>
-      <c r="F33" s="1">
+      <c r="F38" s="1">
         <v>76.5</v>
       </c>
-      <c r="G33" s="1">
+      <c r="G38" s="1">
         <v>25.6</v>
       </c>
-      <c r="H33" s="1">
+      <c r="H38" s="1">
         <v>4.7</v>
       </c>
-      <c r="I33" s="1">
+      <c r="I38" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="2">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A39" s="2">
         <v>1956</v>
       </c>
-      <c r="B34" s="1">
+      <c r="B39" s="1">
         <v>15.1</v>
       </c>
-      <c r="C34" s="1">
+      <c r="C39" s="1">
         <v>171.6</v>
       </c>
-      <c r="D34" s="1">
+      <c r="D39" s="1">
         <v>167.4</v>
       </c>
-      <c r="E34" s="1">
+      <c r="E39" s="1">
         <v>117.6</v>
       </c>
-      <c r="F34" s="1">
+      <c r="F39" s="1">
         <v>74.900000000000006</v>
       </c>
-      <c r="G34" s="1">
+      <c r="G39" s="1">
         <v>25.2</v>
       </c>
-      <c r="H34" s="1">
+      <c r="H39" s="1">
         <v>7.3</v>
       </c>
-      <c r="I34" s="1">
+      <c r="I39" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="2">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A40" s="2">
         <v>1957</v>
       </c>
-      <c r="B35" s="1">
+      <c r="B40" s="1">
         <v>27.2</v>
       </c>
-      <c r="C35" s="1">
+      <c r="C40" s="1">
         <v>161.80000000000001</v>
       </c>
-      <c r="D35" s="1">
+      <c r="D40" s="1">
         <v>170.1</v>
       </c>
-      <c r="E35" s="1">
+      <c r="E40" s="1">
         <v>112.1</v>
       </c>
-      <c r="F35" s="1">
+      <c r="F40" s="1">
         <v>83.2</v>
       </c>
-      <c r="G35" s="1">
+      <c r="G40" s="1">
         <v>25.5</v>
       </c>
-      <c r="H35" s="1">
+      <c r="H40" s="1">
         <v>6.8</v>
       </c>
-      <c r="I35" s="1">
+      <c r="I40" s="1">
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="2">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A41" s="2">
         <v>1958</v>
       </c>
-      <c r="B36" s="1">
+      <c r="B41" s="1">
         <v>35.799999999999997</v>
       </c>
-      <c r="C36" s="1">
+      <c r="C41" s="1">
         <v>159.30000000000001</v>
       </c>
-      <c r="D36" s="1">
+      <c r="D41" s="1">
         <v>170.4</v>
       </c>
-      <c r="E36" s="1">
+      <c r="E41" s="1">
         <v>117.7</v>
       </c>
-      <c r="F36" s="1">
+      <c r="F41" s="1">
         <v>68</v>
       </c>
-      <c r="G36" s="1">
+      <c r="G41" s="1">
         <v>23.8</v>
       </c>
-      <c r="H36" s="1">
+      <c r="H41" s="1">
         <v>5.7</v>
       </c>
-      <c r="I36" s="1">
+      <c r="I41" s="1">
         <v>2.4</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="2">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A42" s="2">
         <v>1959</v>
       </c>
-      <c r="B37" s="1">
+      <c r="B42" s="1">
         <v>36.700000000000003</v>
       </c>
-      <c r="C37" s="1">
+      <c r="C42" s="1">
         <v>147.4</v>
       </c>
-      <c r="D37" s="1">
+      <c r="D42" s="1">
         <v>157.1</v>
       </c>
-      <c r="E37" s="1">
+      <c r="E42" s="1">
         <v>106</v>
       </c>
-      <c r="F37" s="1">
+      <c r="F42" s="1">
         <v>62.9</v>
       </c>
-      <c r="G37" s="1">
+      <c r="G42" s="1">
         <v>27.5</v>
       </c>
-      <c r="H37" s="1">
+      <c r="H42" s="1">
         <v>5.3</v>
       </c>
-      <c r="I37" s="1">
+      <c r="I42" s="1">
         <v>1.8</v>
       </c>
     </row>
